--- a/VideoGameAPIData.xlsx
+++ b/VideoGameAPIData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SeleniumPractice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\eclipse-workspace\VideoGameProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B678CE90-5853-450C-B8B7-4325202341E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795ED71B-F73D-4871-93DA-1EC41DD71199}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -429,7 +429,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,16 +464,16 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -484,16 +484,16 @@
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>8</v>
@@ -504,16 +504,16 @@
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>8</v>
@@ -524,16 +524,16 @@
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>8</v>
@@ -544,10 +544,10 @@
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
